--- a/datos_sigmoid.xlsx
+++ b/datos_sigmoid.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -569,6 +569,74 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>25</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.006074256896972656</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1066.290228157043</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1149.390260863304</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>259.626884</v>
+      </c>
+      <c r="H5" t="n">
+        <v>156.183592</v>
+      </c>
+      <c r="I5" t="n">
+        <v>56.49164</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>25</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.006862058639526367</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1052.766982545853</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1200.054433660507</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1200.006325531006</v>
+      </c>
+      <c r="G6" t="n">
+        <v>202.577952</v>
+      </c>
+      <c r="H6" t="n">
+        <v>18.881952</v>
+      </c>
+      <c r="I6" t="n">
+        <v>26.952764</v>
+      </c>
+      <c r="J6" t="n">
+        <v>54.40656</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/datos_sigmoid.xlsx
+++ b/datos_sigmoid.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -637,6 +637,46 @@
         <v>54.40656</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2</v>
+      </c>
+      <c r="B7" t="n">
+        <v>50</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.00623347282409668</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1200.043860697746</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>306.27301</v>
+      </c>
+      <c r="H7" t="n">
+        <v>85.36555</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/datos_sigmoid.xlsx
+++ b/datos_sigmoid.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -677,6 +677,74 @@
         </is>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>3</v>
+      </c>
+      <c r="B8" t="n">
+        <v>50</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.006654529571533203</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1200.492989320755</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1200.003839874268</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>229.316896</v>
+      </c>
+      <c r="H8" t="n">
+        <v>37.590582</v>
+      </c>
+      <c r="I8" t="n">
+        <v>78.92333999999998</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>4</v>
+      </c>
+      <c r="B9" t="n">
+        <v>50</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.006545424461364746</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1194.215924510956</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1200.005502214432</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1200.186832904816</v>
+      </c>
+      <c r="G9" t="n">
+        <v>175.911584</v>
+      </c>
+      <c r="H9" t="n">
+        <v>24.380952</v>
+      </c>
+      <c r="I9" t="n">
+        <v>31.502646</v>
+      </c>
+      <c r="J9" t="n">
+        <v>67.8335</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/datos_sigmoid.xlsx
+++ b/datos_sigmoid.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -745,6 +745,222 @@
         <v>67.8335</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2</v>
+      </c>
+      <c r="B10" t="n">
+        <v>5</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.005878877639770508</v>
+      </c>
+      <c r="D10" t="n">
+        <v>311.2192137002945</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>66.2877</v>
+      </c>
+      <c r="H10" t="n">
+        <v>9.919270000000001</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>3</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.004645061492919922</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.07962355613708497</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.03112690448760986</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>0.01052</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.00192</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>4</v>
+      </c>
+      <c r="B12" t="n">
+        <v>5</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.004624700546264649</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.07787518501281739</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.01841287612915039</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.02479169368743896</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.0019</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.00192</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.00188</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>2</v>
+      </c>
+      <c r="B13" t="n">
+        <v>10</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.005431389808654786</v>
+      </c>
+      <c r="D13" t="n">
+        <v>739.6080316066742</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>55.28967</v>
+      </c>
+      <c r="H13" t="n">
+        <v>81.71464</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>3</v>
+      </c>
+      <c r="B14" t="n">
+        <v>10</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.00501401424407959</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.1258838176727295</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.02728102207183838</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>0.009470000000000001</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.00196</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>4</v>
+      </c>
+      <c r="B15" t="n">
+        <v>10</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.004945182800292968</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.1106802225112915</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.01832273006439209</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.2646349668502808</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.00851</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.00196</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.0019</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.001910000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/datos_sigmoid.xlsx
+++ b/datos_sigmoid.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -426,13 +426,13 @@
         <v>2</v>
       </c>
       <c r="B1" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C1" t="n">
-        <v>0.007347273826599121</v>
+        <v>0.00592193603515625</v>
       </c>
       <c r="D1" t="n">
-        <v>348.8827963590622</v>
+        <v>9.766957759857178</v>
       </c>
       <c r="E1" t="inlineStr">
         <is>
@@ -445,10 +445,10 @@
         </is>
       </c>
       <c r="G1" t="n">
-        <v>348.5737</v>
+        <v>1556.89948</v>
       </c>
       <c r="H1" t="n">
-        <v>541.5298799999999</v>
+        <v>27873.93823</v>
       </c>
       <c r="I1" t="inlineStr">
         <is>
@@ -466,16 +466,16 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>0.005924248695373535</v>
+        <v>0.005241775512695312</v>
       </c>
       <c r="D2" t="n">
-        <v>497.7938155651092</v>
+        <v>7.229908609390259</v>
       </c>
       <c r="E2" t="n">
-        <v>1126.32333407402</v>
+        <v>40.20486485958099</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -483,13 +483,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>286.35365</v>
+        <v>1508.66568</v>
       </c>
       <c r="H2" t="n">
-        <v>21.28141</v>
+        <v>18.8253</v>
       </c>
       <c r="I2" t="n">
-        <v>40.82109999999999</v>
+        <v>50.23472</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -502,31 +502,31 @@
         <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>0.00759575366973877</v>
+        <v>0.005231904983520508</v>
       </c>
       <c r="D3" t="n">
-        <v>386.0381692647934</v>
+        <v>7.428236389160157</v>
       </c>
       <c r="E3" t="n">
-        <v>1172.605178618431</v>
+        <v>22.04233231544494</v>
       </c>
       <c r="F3" t="n">
-        <v>1191.198523521423</v>
+        <v>139.7287894248962</v>
       </c>
       <c r="G3" t="n">
-        <v>263.18316</v>
+        <v>1219.08876</v>
       </c>
       <c r="H3" t="n">
-        <v>232.7484799999999</v>
+        <v>14.19058</v>
       </c>
       <c r="I3" t="n">
-        <v>15.67049</v>
+        <v>13.66088</v>
       </c>
       <c r="J3" t="n">
-        <v>77.89058999999999</v>
+        <v>68.4011</v>
       </c>
     </row>
     <row r="4">
@@ -534,13 +534,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01143115997314453</v>
+        <v>0.005452513694763184</v>
       </c>
       <c r="D4" t="n">
-        <v>727.7328268527984</v>
+        <v>621.208874464035</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -553,10 +553,10 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>333.4448359999999</v>
+        <v>55.03527</v>
       </c>
       <c r="H4" t="n">
-        <v>1026.26842</v>
+        <v>18.05307</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -574,16 +574,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="C5" t="n">
-        <v>0.006074256896972656</v>
+        <v>0.005590748786926269</v>
       </c>
       <c r="D5" t="n">
-        <v>1066.290228157043</v>
+        <v>34.73804643154144</v>
       </c>
       <c r="E5" t="n">
-        <v>1149.390260863304</v>
+        <v>1123.115635514259</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -591,374 +591,18 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>259.626884</v>
+        <v>1170.25776</v>
       </c>
       <c r="H5" t="n">
-        <v>156.183592</v>
+        <v>25.29141</v>
       </c>
       <c r="I5" t="n">
-        <v>56.49164</v>
+        <v>108.54922</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
           <t>-</t>
         </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>25</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.006862058639526367</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1052.766982545853</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1200.054433660507</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1200.006325531006</v>
-      </c>
-      <c r="G6" t="n">
-        <v>202.577952</v>
-      </c>
-      <c r="H6" t="n">
-        <v>18.881952</v>
-      </c>
-      <c r="I6" t="n">
-        <v>26.952764</v>
-      </c>
-      <c r="J6" t="n">
-        <v>54.40656</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>2</v>
-      </c>
-      <c r="B7" t="n">
-        <v>50</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.00623347282409668</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1200.043860697746</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>306.27301</v>
-      </c>
-      <c r="H7" t="n">
-        <v>85.36555</v>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>3</v>
-      </c>
-      <c r="B8" t="n">
-        <v>50</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.006654529571533203</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1200.492989320755</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1200.003839874268</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>229.316896</v>
-      </c>
-      <c r="H8" t="n">
-        <v>37.590582</v>
-      </c>
-      <c r="I8" t="n">
-        <v>78.92333999999998</v>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>4</v>
-      </c>
-      <c r="B9" t="n">
-        <v>50</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.006545424461364746</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1194.215924510956</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1200.005502214432</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1200.186832904816</v>
-      </c>
-      <c r="G9" t="n">
-        <v>175.911584</v>
-      </c>
-      <c r="H9" t="n">
-        <v>24.380952</v>
-      </c>
-      <c r="I9" t="n">
-        <v>31.502646</v>
-      </c>
-      <c r="J9" t="n">
-        <v>67.8335</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>2</v>
-      </c>
-      <c r="B10" t="n">
-        <v>5</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.005878877639770508</v>
-      </c>
-      <c r="D10" t="n">
-        <v>311.2192137002945</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>66.2877</v>
-      </c>
-      <c r="H10" t="n">
-        <v>9.919270000000001</v>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>3</v>
-      </c>
-      <c r="B11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.004645061492919922</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.07962355613708497</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.03112690448760986</v>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>0.01052</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.00192</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>4</v>
-      </c>
-      <c r="B12" t="n">
-        <v>5</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.004624700546264649</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.07787518501281739</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.01841287612915039</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.02479169368743896</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.008</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.0019</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.00192</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.00188</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>2</v>
-      </c>
-      <c r="B13" t="n">
-        <v>10</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.005431389808654786</v>
-      </c>
-      <c r="D13" t="n">
-        <v>739.6080316066742</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>55.28967</v>
-      </c>
-      <c r="H13" t="n">
-        <v>81.71464</v>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>3</v>
-      </c>
-      <c r="B14" t="n">
-        <v>10</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.00501401424407959</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.1258838176727295</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.02728102207183838</v>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>0.009470000000000001</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0.00196</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>4</v>
-      </c>
-      <c r="B15" t="n">
-        <v>10</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.004945182800292968</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.1106802225112915</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.01832273006439209</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.2646349668502808</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0.00851</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0.00196</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0.0019</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.001910000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/datos_sigmoid.xlsx
+++ b/datos_sigmoid.xlsx
@@ -1,34 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pablo\OneDrive\DOCUME~1\MobaXterm\slash\pablo_desktopsm6qdlg\RemoteFiles\67110_2_10\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7EE86B6-3FBF-4AFC-8F6E-EBEB5CAF8FB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-28920" yWindow="915" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="1">
+  <si>
+    <t>-</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,81 +58,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -408,201 +362,212 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="n">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1">
         <v>2</v>
       </c>
-      <c r="B1" t="n">
+      <c r="B1">
         <v>5</v>
       </c>
-      <c r="C1" t="n">
-        <v>0.00592193603515625</v>
-      </c>
-      <c r="D1" t="n">
-        <v>9.766957759857178</v>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G1" t="n">
+      <c r="C1" s="1">
+        <v>5.9219360351562503E-3</v>
+      </c>
+      <c r="D1" s="1">
+        <v>9.7669577598571777</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="1">
         <v>1556.89948</v>
       </c>
-      <c r="H1" t="n">
+      <c r="H1" s="1">
         <v>27873.93823</v>
       </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="I1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>3</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>5</v>
       </c>
-      <c r="C2" t="n">
-        <v>0.005241775512695312</v>
-      </c>
-      <c r="D2" t="n">
-        <v>7.229908609390259</v>
-      </c>
-      <c r="E2" t="n">
-        <v>40.20486485958099</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
-        <v>1508.66568</v>
-      </c>
-      <c r="H2" t="n">
-        <v>18.8253</v>
-      </c>
-      <c r="I2" t="n">
-        <v>50.23472</v>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="C2" s="1">
+        <v>5.2417755126953122E-3</v>
+      </c>
+      <c r="D2" s="1">
+        <v>7.2299086093902591</v>
+      </c>
+      <c r="E2" s="1">
+        <v>40.204864859580987</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1508.6656800000001</v>
+      </c>
+      <c r="H2" s="1">
+        <v>18.825299999999999</v>
+      </c>
+      <c r="I2" s="1">
+        <v>50.234720000000003</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>4</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>5</v>
       </c>
-      <c r="C3" t="n">
-        <v>0.005231904983520508</v>
-      </c>
-      <c r="D3" t="n">
-        <v>7.428236389160157</v>
-      </c>
-      <c r="E3" t="n">
-        <v>22.04233231544494</v>
-      </c>
-      <c r="F3" t="n">
-        <v>139.7287894248962</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1219.08876</v>
-      </c>
-      <c r="H3" t="n">
-        <v>14.19058</v>
-      </c>
-      <c r="I3" t="n">
-        <v>13.66088</v>
-      </c>
-      <c r="J3" t="n">
+      <c r="C3" s="1">
+        <v>5.231904983520508E-3</v>
+      </c>
+      <c r="D3" s="1">
+        <v>7.4282363891601566</v>
+      </c>
+      <c r="E3" s="1">
+        <v>22.042332315444941</v>
+      </c>
+      <c r="F3" s="1">
+        <v>139.72878942489621</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1219.0887600000001</v>
+      </c>
+      <c r="H3" s="1">
+        <v>14.190580000000001</v>
+      </c>
+      <c r="I3" s="1">
+        <v>13.660880000000001</v>
+      </c>
+      <c r="J3" s="1">
         <v>68.4011</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>10</v>
       </c>
-      <c r="C4" t="n">
-        <v>0.005452513694763184</v>
-      </c>
-      <c r="D4" t="n">
-        <v>621.208874464035</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>55.03527</v>
-      </c>
-      <c r="H4" t="n">
-        <v>18.05307</v>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="C4" s="1">
+        <v>5.4525136947631836E-3</v>
+      </c>
+      <c r="D4" s="1">
+        <v>621.20887446403503</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>55.035269999999997</v>
+      </c>
+      <c r="H4" s="1">
+        <v>18.053070000000002</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>10</v>
       </c>
-      <c r="C5" t="n">
-        <v>0.005590748786926269</v>
-      </c>
-      <c r="D5" t="n">
-        <v>34.73804643154144</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1123.115635514259</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
+      <c r="C5" s="1">
+        <v>5.5907487869262694E-3</v>
+      </c>
+      <c r="D5" s="1">
+        <v>34.738046431541441</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1123.1156355142591</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
         <v>1170.25776</v>
       </c>
-      <c r="H5" t="n">
-        <v>25.29141</v>
-      </c>
-      <c r="I5" t="n">
-        <v>108.54922</v>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="H5" s="1">
+        <v>25.291409999999999</v>
+      </c>
+      <c r="I5" s="1">
+        <v>108.54922000000001</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1">
+        <v>5.8621883392333983E-3</v>
+      </c>
+      <c r="D6" s="1">
+        <v>290.30798571109767</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1200.0515376806261</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1176.122021484375</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1270.31303</v>
+      </c>
+      <c r="H6" s="1">
+        <v>24.69989</v>
+      </c>
+      <c r="I6" s="1">
+        <v>28.407440000000001</v>
+      </c>
+      <c r="J6" s="1">
+        <v>112.10153</v>
       </c>
     </row>
   </sheetData>

--- a/datos_sigmoid.xlsx
+++ b/datos_sigmoid.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -529,6 +529,114 @@
         <v>41.50371</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>10</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.006762409210205078</v>
+      </c>
+      <c r="D4" t="n">
+        <v>470.7772166490555</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>55.03527</v>
+      </c>
+      <c r="H4" t="n">
+        <v>18.07508</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>10</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.005525636672973633</v>
+      </c>
+      <c r="D5" t="n">
+        <v>37.25114996433258</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1167.824867463112</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>1170.25776</v>
+      </c>
+      <c r="H5" t="n">
+        <v>25.29141</v>
+      </c>
+      <c r="I5" t="n">
+        <v>48.50498</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>10</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.005659198760986328</v>
+      </c>
+      <c r="D6" t="n">
+        <v>150.7926945209503</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1189.935960936546</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1200.001388859749</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1270.31303</v>
+      </c>
+      <c r="H6" t="n">
+        <v>24.69989</v>
+      </c>
+      <c r="I6" t="n">
+        <v>27.67869</v>
+      </c>
+      <c r="J6" t="n">
+        <v>59.23377999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
